--- a/biology/Botanique/Pinellie_ternée/Pinellie_ternée.xlsx
+++ b/biology/Botanique/Pinellie_ternée/Pinellie_ternée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pinellie_tern%C3%A9e</t>
+          <t>Pinellie_ternée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pinellie ternée
 Pinellia ternata, la Pinellie ternée, (en chinois:半夏, en japonais:カラスビシャク), est une espèce de plantes originaire de Chine. Les feuilles pédatiséquées sur les individus robustes rappelant fortement celles d'Arum dracunculus, sont souvent réduites à trois folioles lancéolées sur les plus grêles.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pinellie_tern%C3%A9e</t>
+          <t>Pinellie_ternée</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Propriétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Pinellia ternata, appelée Chi Bán hạ, a des feuilles trifoliées qui produisent des bulbilles à la base du pétiole et au point d’union des trois folioles. Pinellia ternata f. angustata (Schott) Makino a des folioles plus étroites.
 Dans sa région d’origine cette espèce est cultivée à des fins médicinales. Elle contient un alcaloïde dont les propriétés sont semblables à celles de la coniine et à l’éphédrine. La médecine chinoise l’utilise comme décongestionnant des voies respiratoires, comme carminatif contre les flatulences intestinales et comme antiémétique. Il est également très utilisé en médecine Kampo.
